--- a/biology/Zoologie/Diamant_de_Luçon/Diamant_de_Luçon.xlsx
+++ b/biology/Zoologie/Diamant_de_Luçon/Diamant_de_Luçon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_de_Lu%C3%A7on</t>
+          <t>Diamant_de_Luçon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrura viridifacies
 Le Diamant de Luçon (Erythrura viridifacies), ou Pape de Manille[réf. nécessaire], est une espèce de petits passereaux se trouvant sur les îles de Luçon, Panay et Negros aux Philippines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_de_Lu%C3%A7on</t>
+          <t>Diamant_de_Luçon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 13 cm. Il est entièrement vert à l'exception du croupion et de la queue qui sont rouges. Le bec est noir. La femelle est plus terne et plus claire que le mâle. Seul le mâle chante.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_de_Lu%C3%A7on</t>
+          <t>Diamant_de_Luçon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat et alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils vivent sur les îles de Luçon, Negeos et Panay dans les versants boisés et les champs de bambous. Ils se nourrissent de graines d'herbes et de bambous.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diamant_de_Lu%C3%A7on</t>
+          <t>Diamant_de_Luçon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils nidifient entre mars et avril uniquement.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diamant_de_Lu%C3%A7on</t>
+          <t>Diamant_de_Luçon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait qu'ils sont répartis irrégulièrement, on connaît peu leur comportement.
 </t>
